--- a/published-data/fonds-solidarite/fds-2021-02-07/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-07/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -4923,13 +4923,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="D90" t="n">
         <v>1037</v>
       </c>
       <c r="E90" t="n">
-        <v>7042477</v>
+        <v>7032477</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -5025,13 +5025,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4724</v>
+        <v>4725</v>
       </c>
       <c r="D92" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E92" t="n">
-        <v>14430243</v>
+        <v>14440243</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6352</v>
+        <v>6350</v>
       </c>
       <c r="D116" t="n">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="E116" t="n">
-        <v>8555786</v>
+        <v>8552991</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="D129" t="n">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E129" t="n">
-        <v>6257845</v>
+        <v>6259260</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>10750</v>
+        <v>10749</v>
       </c>
       <c r="D130" t="n">
         <v>3449</v>
       </c>
       <c r="E130" t="n">
-        <v>20420679</v>
+        <v>20419264</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -16959,13 +16959,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D326" t="n">
         <v>493</v>
       </c>
       <c r="E326" t="n">
-        <v>2787852</v>
+        <v>2786352</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -18642,13 +18642,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>4722</v>
+        <v>4723</v>
       </c>
       <c r="D359" t="n">
         <v>1584</v>
       </c>
       <c r="E359" t="n">
-        <v>9862194</v>
+        <v>9863608</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -19662,13 +19662,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>6945</v>
+        <v>6946</v>
       </c>
       <c r="D379" t="n">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="E379" t="n">
-        <v>9375719</v>
+        <v>9377022</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -20529,13 +20529,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="D396" t="n">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E396" t="n">
-        <v>4999918</v>
+        <v>5000718</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -20580,13 +20580,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>4817</v>
+        <v>4815</v>
       </c>
       <c r="D397" t="n">
         <v>2143</v>
       </c>
       <c r="E397" t="n">
-        <v>6345079</v>
+        <v>6342976</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
@@ -22569,13 +22569,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D436" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E436" t="n">
-        <v>4942557</v>
+        <v>4941057</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22875,13 +22875,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D442" t="n">
         <v>280</v>
       </c>
       <c r="E442" t="n">
-        <v>1705343</v>
+        <v>1706843</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -38838,13 +38838,13 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>17167</v>
+        <v>17166</v>
       </c>
       <c r="D755" t="n">
-        <v>5308</v>
+        <v>5307</v>
       </c>
       <c r="E755" t="n">
-        <v>32446413</v>
+        <v>32437043</v>
       </c>
       <c r="F755" t="inlineStr">
         <is>
@@ -39093,13 +39093,13 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>20014</v>
+        <v>20015</v>
       </c>
       <c r="D760" t="n">
         <v>5781</v>
       </c>
       <c r="E760" t="n">
-        <v>33825065</v>
+        <v>33834435</v>
       </c>
       <c r="F760" t="inlineStr">
         <is>
@@ -42867,13 +42867,13 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>50085</v>
+        <v>50084</v>
       </c>
       <c r="D834" t="n">
         <v>8115</v>
       </c>
       <c r="E834" t="n">
-        <v>102909703</v>
+        <v>102899703</v>
       </c>
       <c r="F834" t="inlineStr">
         <is>
@@ -43836,13 +43836,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>34606</v>
+        <v>34603</v>
       </c>
       <c r="D853" t="n">
         <v>8840</v>
       </c>
       <c r="E853" t="n">
-        <v>79954438</v>
+        <v>79951728</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43989,13 +43989,13 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>115155</v>
+        <v>115153</v>
       </c>
       <c r="D856" t="n">
         <v>33149</v>
       </c>
       <c r="E856" t="n">
-        <v>216463234</v>
+        <v>216460560</v>
       </c>
       <c r="F856" t="inlineStr">
         <is>
@@ -44193,13 +44193,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>66961</v>
+        <v>66962</v>
       </c>
       <c r="D860" t="n">
-        <v>13277</v>
+        <v>13278</v>
       </c>
       <c r="E860" t="n">
-        <v>138046024</v>
+        <v>138047284</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -45723,13 +45723,13 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>17369</v>
+        <v>17371</v>
       </c>
       <c r="D890" t="n">
-        <v>4824</v>
+        <v>4825</v>
       </c>
       <c r="E890" t="n">
-        <v>30954190</v>
+        <v>30957240</v>
       </c>
       <c r="F890" t="inlineStr">
         <is>
@@ -46437,13 +46437,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>5637</v>
+        <v>5640</v>
       </c>
       <c r="D904" t="n">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="E904" t="n">
-        <v>10395802</v>
+        <v>10398512</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -54393,13 +54393,13 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D1060" t="n">
         <v>675</v>
       </c>
       <c r="E1060" t="n">
-        <v>3969351</v>
+        <v>3969248</v>
       </c>
       <c r="F1060" t="inlineStr">
         <is>
@@ -54750,13 +54750,13 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>13912</v>
+        <v>13913</v>
       </c>
       <c r="D1067" t="n">
         <v>2975</v>
       </c>
       <c r="E1067" t="n">
-        <v>52124902</v>
+        <v>52134902</v>
       </c>
       <c r="F1067" t="inlineStr">
         <is>
@@ -54954,13 +54954,13 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>6795</v>
+        <v>6794</v>
       </c>
       <c r="D1071" t="n">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E1071" t="n">
-        <v>13834674</v>
+        <v>13824674</v>
       </c>
       <c r="F1071" t="inlineStr">
         <is>
@@ -60870,13 +60870,13 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>20856</v>
+        <v>20857</v>
       </c>
       <c r="D1187" t="n">
-        <v>6714</v>
+        <v>6715</v>
       </c>
       <c r="E1187" t="n">
-        <v>40011373</v>
+        <v>40012249</v>
       </c>
       <c r="F1187" t="inlineStr">
         <is>
@@ -60972,13 +60972,13 @@
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>9814</v>
+        <v>9813</v>
       </c>
       <c r="D1189" t="n">
         <v>2416</v>
       </c>
       <c r="E1189" t="n">
-        <v>14570017</v>
+        <v>14568517</v>
       </c>
       <c r="F1189" t="inlineStr">
         <is>
@@ -61074,13 +61074,13 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>12902</v>
+        <v>12901</v>
       </c>
       <c r="D1191" t="n">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="E1191" t="n">
-        <v>25427657</v>
+        <v>25427507</v>
       </c>
       <c r="F1191" t="inlineStr">
         <is>
@@ -61125,13 +61125,13 @@
         </is>
       </c>
       <c r="C1192" t="n">
-        <v>19396</v>
+        <v>19395</v>
       </c>
       <c r="D1192" t="n">
         <v>5760</v>
       </c>
       <c r="E1192" t="n">
-        <v>32581316</v>
+        <v>32580440</v>
       </c>
       <c r="F1192" t="inlineStr">
         <is>
@@ -64440,13 +64440,13 @@
         </is>
       </c>
       <c r="C1257" t="n">
-        <v>5222</v>
+        <v>5223</v>
       </c>
       <c r="D1257" t="n">
         <v>1278</v>
       </c>
       <c r="E1257" t="n">
-        <v>8090089</v>
+        <v>8091589</v>
       </c>
       <c r="F1257" t="inlineStr">
         <is>
@@ -64491,13 +64491,13 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>6432</v>
+        <v>6434</v>
       </c>
       <c r="D1258" t="n">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="E1258" t="n">
-        <v>8522350</v>
+        <v>8525145</v>
       </c>
       <c r="F1258" t="inlineStr">
         <is>
@@ -67959,13 +67959,13 @@
         </is>
       </c>
       <c r="C1326" t="n">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D1326" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E1326" t="n">
-        <v>2343099</v>
+        <v>2343691</v>
       </c>
       <c r="F1326" t="inlineStr">
         <is>
@@ -68061,13 +68061,13 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D1328" t="n">
         <v>425</v>
       </c>
       <c r="E1328" t="n">
-        <v>3527177</v>
+        <v>3526585</v>
       </c>
       <c r="F1328" t="inlineStr">
         <is>
@@ -70611,13 +70611,13 @@
         </is>
       </c>
       <c r="C1378" t="n">
-        <v>12732</v>
+        <v>12730</v>
       </c>
       <c r="D1378" t="n">
-        <v>5667</v>
+        <v>5666</v>
       </c>
       <c r="E1378" t="n">
-        <v>16936229</v>
+        <v>16933587</v>
       </c>
       <c r="F1378" t="inlineStr">
         <is>
@@ -71427,13 +71427,13 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="D1394" t="n">
         <v>630</v>
       </c>
       <c r="E1394" t="n">
-        <v>1920431</v>
+        <v>1923073</v>
       </c>
       <c r="F1394" t="inlineStr">
         <is>
@@ -72294,13 +72294,13 @@
         </is>
       </c>
       <c r="C1411" t="n">
-        <v>10351</v>
+        <v>10350</v>
       </c>
       <c r="D1411" t="n">
-        <v>4594</v>
+        <v>4593</v>
       </c>
       <c r="E1411" t="n">
-        <v>13882295</v>
+        <v>13880885</v>
       </c>
       <c r="F1411" t="inlineStr">
         <is>
@@ -72345,13 +72345,13 @@
         </is>
       </c>
       <c r="C1412" t="n">
-        <v>11367</v>
+        <v>11368</v>
       </c>
       <c r="D1412" t="n">
         <v>2223</v>
       </c>
       <c r="E1412" t="n">
-        <v>23545836</v>
+        <v>23547246</v>
       </c>
       <c r="F1412" t="inlineStr">
         <is>
@@ -73212,13 +73212,13 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D1429" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E1429" t="n">
-        <v>2598050</v>
+        <v>2598200</v>
       </c>
       <c r="F1429" t="inlineStr">
         <is>
@@ -75099,13 +75099,13 @@
         </is>
       </c>
       <c r="C1466" t="n">
-        <v>6304</v>
+        <v>6303</v>
       </c>
       <c r="D1466" t="n">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E1466" t="n">
-        <v>12691318</v>
+        <v>12690103</v>
       </c>
       <c r="F1466" t="inlineStr">
         <is>
@@ -75201,13 +75201,13 @@
         </is>
       </c>
       <c r="C1468" t="n">
-        <v>5259</v>
+        <v>5260</v>
       </c>
       <c r="D1468" t="n">
         <v>1061</v>
       </c>
       <c r="E1468" t="n">
-        <v>17461254</v>
+        <v>17462469</v>
       </c>
       <c r="F1468" t="inlineStr">
         <is>
@@ -77139,13 +77139,13 @@
         </is>
       </c>
       <c r="C1506" t="n">
-        <v>14244</v>
+        <v>14243</v>
       </c>
       <c r="D1506" t="n">
         <v>4637</v>
       </c>
       <c r="E1506" t="n">
-        <v>28479636</v>
+        <v>28475696</v>
       </c>
       <c r="F1506" t="inlineStr">
         <is>
@@ -77190,13 +77190,13 @@
         </is>
       </c>
       <c r="C1507" t="n">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="D1507" t="n">
         <v>1372</v>
       </c>
       <c r="E1507" t="n">
-        <v>9602228</v>
+        <v>9606168</v>
       </c>
       <c r="F1507" t="inlineStr">
         <is>
@@ -79893,13 +79893,13 @@
         </is>
       </c>
       <c r="C1560" t="n">
-        <v>5121</v>
+        <v>5122</v>
       </c>
       <c r="D1560" t="n">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E1560" t="n">
-        <v>8908981</v>
+        <v>8909084</v>
       </c>
       <c r="F1560" t="inlineStr">
         <is>
@@ -82188,13 +82188,13 @@
         </is>
       </c>
       <c r="C1605" t="n">
-        <v>17909</v>
+        <v>17907</v>
       </c>
       <c r="D1605" t="n">
         <v>5338</v>
       </c>
       <c r="E1605" t="n">
-        <v>34017357</v>
+        <v>34004186</v>
       </c>
       <c r="F1605" t="inlineStr">
         <is>
@@ -82392,13 +82392,13 @@
         </is>
       </c>
       <c r="C1609" t="n">
-        <v>10949</v>
+        <v>10951</v>
       </c>
       <c r="D1609" t="n">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="E1609" t="n">
-        <v>22562034</v>
+        <v>22575205</v>
       </c>
       <c r="F1609" t="inlineStr">
         <is>
@@ -83922,13 +83922,13 @@
         </is>
       </c>
       <c r="C1639" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D1639" t="n">
         <v>256</v>
       </c>
       <c r="E1639" t="n">
-        <v>2394567</v>
+        <v>2392874</v>
       </c>
       <c r="F1639" t="inlineStr">
         <is>
@@ -84075,13 +84075,13 @@
         </is>
       </c>
       <c r="C1642" t="n">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="D1642" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E1642" t="n">
-        <v>4586410</v>
+        <v>4588103</v>
       </c>
       <c r="F1642" t="inlineStr">
         <is>
